--- a/etl/source/metadata.xlsx
+++ b/etl/source/metadata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="indicators" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="other_cols" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="other_cols" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="138">
   <si>
     <t xml:space="preserve">wpp_column_name</t>
   </si>
@@ -285,6 +285,27 @@
   </si>
   <si>
     <t xml:space="preserve">Population on 01 July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexmale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male Life Expectancy at Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexfemale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female Life Expectancy at Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cdr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crude Death Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deaths per 1,000 population</t>
   </si>
   <si>
     <t xml:space="preserve">concept_type</t>
@@ -423,7 +444,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -457,6 +478,12 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -521,32 +548,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,15 +597,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -596,147 +737,147 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -750,7 +891,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -764,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -814,7 +955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -825,7 +966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
@@ -836,7 +977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
@@ -847,7 +988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
@@ -858,7 +999,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>66</v>
       </c>
@@ -869,7 +1010,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
@@ -880,7 +1021,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>70</v>
       </c>
@@ -891,7 +1032,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>73</v>
       </c>
@@ -902,7 +1043,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>76</v>
       </c>
@@ -913,7 +1054,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>78</v>
       </c>
@@ -960,6 +1101,39 @@
       </c>
       <c r="D31" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -974,301 +1148,301 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="60.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>91</v>
+      <c r="B1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>94</v>
+      <c r="A2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="71.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="71.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/etl/source/metadata.xlsx
+++ b/etl/source/metadata.xlsx
@@ -21,12 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="139">
   <si>
     <t xml:space="preserve">wpp_column_name</t>
   </si>
   <si>
-    <t xml:space="preserve">concept_id</t>
+    <t xml:space="preserve">concept</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlx</t>
   </si>
   <si>
     <t xml:space="preserve">Number of person-years lived, (nLx), between ages x and x+n</t>
@@ -484,6 +487,7 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -711,7 +715,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1015,62 +1019,62 @@
         <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>15</v>
@@ -1078,26 +1082,26 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>15</v>
@@ -1105,10 +1109,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -1116,10 +1120,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -1127,13 +1131,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1159,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1172,233 +1176,233 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="71.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>2</v>
@@ -1406,32 +1410,32 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>3</v>
@@ -1439,10 +1443,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/etl/source/metadata.xlsx
+++ b/etl/source/metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="141">
   <si>
     <t xml:space="preserve">wpp_column_name</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_hoc_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad hoc groups</t>
   </si>
 </sst>
 </file>
@@ -714,7 +720,7 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1156,10 +1162,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1449,6 +1455,17 @@
         <v>104</v>
       </c>
     </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="SDMX Global Registry: cross domain code list for geographical areas (version 2.0) represents a combination of reference area codes in M49 and ISO-3166 classification for international data exchange and interoperability https://sdmx.org/?page_id=3215 and https://registry.sdmx.org/ws/public/sdmxapi/rest/codelist/SDMX/CL_AREA/2.0"/>

--- a/etl/source/metadata.xlsx
+++ b/etl/source/metadata.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="indicators" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="other_cols" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="other_cols" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,12 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="141">
   <si>
     <t xml:space="preserve">wpp_column_name</t>
   </si>
   <si>
-    <t xml:space="preserve">concept_id</t>
+    <t xml:space="preserve">concept</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -230,6 +230,9 @@
     <t xml:space="preserve">Lx</t>
   </si>
   <si>
+    <t xml:space="preserve">nlx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of person-years lived, (nLx), between ages x and x+n</t>
   </si>
   <si>
@@ -287,6 +290,27 @@
     <t xml:space="preserve">Population on 01 July</t>
   </si>
   <si>
+    <t xml:space="preserve">lexmale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male Life Expectancy at Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexfemale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female Life Expectancy at Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cdr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crude Death Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deaths per 1,000 population</t>
+  </si>
+  <si>
     <t xml:space="preserve">concept_type</t>
   </si>
   <si>
@@ -414,6 +438,12 @@
   </si>
   <si>
     <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_hoc_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad hoc groups</t>
   </si>
 </sst>
 </file>
@@ -423,7 +453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -456,6 +486,13 @@
       <sz val="10"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -521,32 +558,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,15 +607,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -596,147 +747,147 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -750,7 +901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -764,7 +915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -814,7 +965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -825,7 +976,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
@@ -836,7 +987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
@@ -847,7 +998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
@@ -858,7 +1009,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>66</v>
       </c>
@@ -869,67 +1020,67 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>15</v>
@@ -937,29 +1088,62 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -974,301 +1158,312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="60.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>91</v>
+      <c r="B1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>94</v>
+      <c r="A2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="71.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="71.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B22" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>96</v>
+      <c r="E23" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/etl/source/metadata.xlsx
+++ b/etl/source/metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,415 +29,415 @@
     <t xml:space="preserve">concept</t>
   </si>
   <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PopSexRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popsexratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population Sex Ratio, as of 1 July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">males per 100 females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedianAgePop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medianagepop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median Age, as of 1 July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NatChange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Change, Births minus Deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thousands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NatChangeRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natchangert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of Natural Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per 1,000 population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PopChange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PopGrowthRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popgrowthrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population Growth Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoublingTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doublingtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population Annual Doubling Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Births1519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">births1519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Births by women aged 15 to 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Reproduction Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surviving daughters per woman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Age Childbearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex Ratio at Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">males per 100 female births</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetMigrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netmigrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Number of Migrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnmr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Migration Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asfr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age-specific Fertility Rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasfr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Age-specific Fertility Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Births</t>
+  </si>
+  <si>
+    <t xml:space="preserve">births</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central death rate, nmx, for the age interval (x, x+n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability of dying (nqx), for an individual between age x and x+n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability of surviving, (npx), for an individual of age x to age x+n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of survivors, (lx), at age (x) for 100000 births</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of deaths, (ndx), between ages x and x+n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of person-years lived, (nLx), between ages x and x+n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survival ratio (nSx) corresponding to proportion of the life table population in age group (x, x+n) who are alive n year later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person-years lived, (Tx), above age x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expectation of life (ex) at age x, i.e., average number of years lived subsequent to age x by those reaching age x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average number of years lived (nax) between ages x and x+n by those dying in the interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population_percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population on 01 July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population_exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population exposure (01 Jan - 31 Dec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population on 01 July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexmale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male Life Expectancy at Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexfemale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female Life Expectancy at Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cdr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crude Death Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deaths per 1,000 population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concept_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drill_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric code for the location; for countries and areas it follows the ISO 3166-1 numeric standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iso3_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO 3166-1 alpha-3 location codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iso2_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO 3166-1 alpha-2 location codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdmx_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDMX Global Registry: cross domain code list for geographical areas (version 2.0) represents a combination of reference area codes in M49 and ISO-3166 classification for international data exchange and interoperability https://sdmx.org/?page_id=3215 and https://registry.sdmx.org/ws/public/sdmxapi/rest/codelist/SDMX/CL_AREA/2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year the data refers to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_group_1year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age Group, 1 year interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_group_5year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age Group, 5 year interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_group_broad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age Group, Broad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdg_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDG region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">development_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geographic_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geographic region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subregion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subregion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country/Area</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent entity ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PopSexRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">popsexratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population Sex Ratio, as of 1 July</t>
-  </si>
-  <si>
-    <t xml:space="preserve">males per 100 females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MedianAgePop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medianagepop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median Age, as of 1 July</t>
-  </si>
-  <si>
-    <t xml:space="preserve">years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NatChange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural Change, Births minus Deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thousands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NatChangeRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natchangert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate of Natural Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per 1,000 population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PopChange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">popchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PopGrowthRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">popgrowthrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population Growth Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoublingTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doublingtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population Annual Doubling Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Births1519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">births1519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Births by women aged 15 to 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NNR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nnr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Reproduction Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surviving daughters per woman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean Age Childbearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex Ratio at Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">males per 100 female births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetMigrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">netmigrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Number of Migrants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cnmr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Migration Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asfr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age-specific Fertility Rate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pasfr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Age-specific Fertility Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central death rate, nmx, for the age interval (x, x+n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of dying (nqx), for an individual between age x and x+n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">px</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of surviving, (npx), for an individual of age x to age x+n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of survivors, (lx), at age (x) for 100000 births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of deaths, (ndx), between ages x and x+n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of person-years lived, (nLx), between ages x and x+n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survival ratio (nSx) corresponding to proportion of the life table population in age group (x, x+n) who are alive n year later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person-years lived, (Tx), above age x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expectation of life (ex) at age x, i.e., average number of years lived subsequent to age x by those reaching age x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average number of years lived (nax) between ages x and x+n by those dying in the interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population_percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population on 01 July</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population_exposure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population exposure (01 Jan - 31 Dec)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population on 01 July</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lexmale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male Life Expectancy at Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lexfemale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female Life Expectancy at Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crude Death Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deaths per 1,000 population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concept_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drill_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity_domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numeric code for the location; for countries and areas it follows the ISO 3166-1 numeric standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iso3_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 3166-1 alpha-3 location codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iso2_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 3166-1 alpha-2 location codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdmx_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDMX Global Registry: cross domain code list for geographical areas (version 2.0) represents a combination of reference area codes in M49 and ISO-3166 classification for international data exchange and interoperability https://sdmx.org/?page_id=3215 and https://registry.sdmx.org/ws/public/sdmxapi/rest/codelist/SDMX/CL_AREA/2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year the data refers to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_group_1year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age Group, 1 year interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_group_5year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age Group, 5 year interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_group_broad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age Group, Broad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity_set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdg_region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDG region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">development_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geographic_region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geographic region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subregion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subregion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country_area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country/Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent entity ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit</t>
   </si>
   <si>
     <t xml:space="preserve">ad_hoc_group</t>
@@ -720,8 +720,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1164,7 +1164,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1191,227 +1191,227 @@
         <v>98</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="71.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,7 +1419,7 @@
         <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>135</v>
@@ -1430,7 +1430,7 @@
         <v>136</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>137</v>
@@ -1438,13 +1438,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,7 +1452,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,7 +1460,7 @@
         <v>139</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>140</v>

--- a/etl/source/metadata.xlsx
+++ b/etl/source/metadata.xlsx
@@ -284,7 +284,7 @@
     <t xml:space="preserve">Population exposure (01 Jan - 31 Dec)</t>
   </si>
   <si>
-    <t xml:space="preserve">population </t>
+    <t xml:space="preserve">population</t>
   </si>
   <si>
     <t xml:space="preserve">Population on 01 July</t>
@@ -721,7 +721,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
